--- a/doc/task04/uc-3_Report_einsehen/uc3_scenario_diagram.xlsx
+++ b/doc/task04/uc-3_Report_einsehen/uc3_scenario_diagram.xlsx
@@ -1,42 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="9732"/>
+    <workbookView windowWidth="20490" windowHeight="8745"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>Name:</t>
   </si>
   <si>
+    <t xml:space="preserve">Sieht Report ein </t>
+  </si>
+  <si>
     <t>Nummer:</t>
   </si>
   <si>
     <t>Kurzbeschreibung:</t>
   </si>
   <si>
+    <t>Manager lässt Report zur Einsicht generieren</t>
+  </si>
+  <si>
     <t>Beteiligte Akteure:</t>
   </si>
   <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Auslöser/Vorbedingung:</t>
+  </si>
+  <si>
+    <t>Öffnet Reporting</t>
+  </si>
+  <si>
     <t>Ergbnis/Nachbedinung:</t>
   </si>
   <si>
-    <t>Auslöser/Vorbedingung:</t>
+    <t>Manager erhält Report</t>
+  </si>
+  <si>
+    <t>Ablauf:</t>
+  </si>
+  <si>
+    <t>Nr.</t>
   </si>
   <si>
     <t>Wer</t>
@@ -45,107 +61,243 @@
     <t>Was</t>
   </si>
   <si>
-    <t>Nr.</t>
-  </si>
-  <si>
-    <t>Ablauf:</t>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>Wählt Report aus</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>Definiert Zeitraum</t>
+  </si>
+  <si>
+    <t>3.3</t>
   </si>
   <si>
     <t>System</t>
   </si>
   <si>
+    <t>Fordert Daten an</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>DBS</t>
+  </si>
+  <si>
+    <t>Liefert Daten</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>Generiert Report</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>Schaut report an</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>Variante: Wünscht Export</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ausnahmen/Varianten: </t>
   </si>
   <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>Wählt Report aus</t>
-  </si>
-  <si>
-    <t>Öffnet Reporting</t>
-  </si>
-  <si>
-    <t>Definiert Zeitraum</t>
-  </si>
-  <si>
-    <t>Fordert Daten an</t>
-  </si>
-  <si>
-    <t>DBS</t>
-  </si>
-  <si>
-    <t>Liefert Daten</t>
-  </si>
-  <si>
-    <t>Generiert Report</t>
-  </si>
-  <si>
-    <t>Schaut report an</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>Variante: Wünscht Export</t>
-  </si>
-  <si>
     <t>Exportiert Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sieht Report ein </t>
-  </si>
-  <si>
-    <t>Manager lässt Report zur Einsicht generieren</t>
-  </si>
-  <si>
-    <t>Manager erhält Report</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,12 +312,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -173,36 +511,321 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="50">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="42" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="50">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Standard" xfId="42"/>
+    <cellStyle name="20% - Accent1" xfId="43" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="46" builtinId="17"/>
+    <cellStyle name="Comma" xfId="47" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="48" builtinId="23"/>
+    <cellStyle name="Percent" xfId="49" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -211,7 +834,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="313739"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -249,7 +872,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,7 +907,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -459,267 +1082,267 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88666666666667" defaultRowHeight="12.75" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="4" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.31333333333333" customWidth="1"/>
+    <col min="3" max="3" width="20.7" customWidth="1"/>
+    <col min="4" max="4" width="50.7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="2:4">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="1"/>
       <c r="D2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="3">
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6"/>
+    <row r="4" spans="2:4">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1"/>
       <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" t="s">
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="15" spans="2:4">
+      <c r="B15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>19</v>
+    <row r="17" spans="2:4">
+      <c r="B17" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
       <c r="D22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="4"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>